--- a/SaveEarth/Assets/StaticData/Economy/BuildingEconomy.xlsx
+++ b/SaveEarth/Assets/StaticData/Economy/BuildingEconomy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SaveEarth\SaveEarthFromGlobalWarming\SaveEarth\Assets\Economy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SaveEarth\SaveEarthFromGlobalWarming\SaveEarth\Assets\StaticData\Economy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF869F02-AECC-4B98-BA46-5F6B24A54C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E4031C-2ACD-41C9-B028-53E7BBF678DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="1620" windowWidth="15375" windowHeight="7875" xr2:uid="{3C1473EB-D313-427D-84B9-052342A70320}"/>
+    <workbookView xWindow="3090" yWindow="1395" windowWidth="15375" windowHeight="7875" xr2:uid="{3C1473EB-D313-427D-84B9-052342A70320}"/>
   </bookViews>
   <sheets>
     <sheet name="Economy" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>DataID</t>
   </si>
@@ -58,6 +58,24 @@
   </si>
   <si>
     <t>Cost</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>building_towncenter</t>
+  </si>
+  <si>
+    <t>building_farm</t>
+  </si>
+  <si>
+    <t>building_factory</t>
+  </si>
+  <si>
+    <t>building_filterationplant</t>
+  </si>
+  <si>
+    <t>building_house</t>
   </si>
 </sst>
 </file>
@@ -426,101 +444,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F7D1F4-27E9-408F-9BA0-A0B0276869DF}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>7</v>
       </c>
     </row>
